--- a/테스트케이스.xlsx
+++ b/테스트케이스.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="360" windowWidth="21768" windowHeight="8988" activeTab="3"/>
+    <workbookView xWindow="768" yWindow="360" windowWidth="21768" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="문제1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>2.1.1 결과는 제대로 출력 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일주신 문제2번의 내용과 예시의 내용이 달라서 문제의 내용대로 5개의 좌표를 입력받도록 했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +347,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1602,11 +1617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1616,16 +1631,18 @@
     <col min="3" max="3" width="12.19921875" style="12" customWidth="1"/>
     <col min="4" max="4" width="44.09765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="10"/>
-    <col min="6" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="86" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1638,8 +1655,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1653,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="11" t="s">
@@ -1663,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="11" t="s">
@@ -1673,12 +1693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1703,9 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1745,11 +1763,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1759,16 +1777,18 @@
     <col min="3" max="3" width="12.19921875" style="12" customWidth="1"/>
     <col min="4" max="4" width="44.09765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="10"/>
-    <col min="6" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="86" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1781,8 +1801,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1795,8 +1818,11 @@
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="11" t="s">
@@ -1806,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="11" t="s">
@@ -1816,12 +1842,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1829,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>5</v>
@@ -1846,9 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1876,7 +1900,7 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
